--- a/biology/Botanique/Pueraria_phaseoloïdes/Pueraria_phaseoloïdes.xlsx
+++ b/biology/Botanique/Pueraria_phaseoloïdes/Pueraria_phaseoloïdes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Pueraria_phaseolo%C3%AFdes</t>
+          <t>Pueraria_phaseoloïdes</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Pueraria phaseoloides est une plante grimpante appartenant à la famille des Fabaceae. Elle est également connue sous le nom de "kudzu tropical" ou "puero". Originaire d'Asie du Sud et des régions tropicales du Pacifique, cette espèce est largement utilisée en agriculture pour ses propriétés de couverture du sol et ses avantages écologiques.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Pueraria_phaseolo%C3%AFdes</t>
+          <t>Pueraria_phaseoloïdes</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Description Morphologique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Pueraria phaseoloides se caractérise par ses tiges grimpantes qui peuvent atteindre 2 à 4 mètres de longueur. Ses feuilles sont trifoliolées, avec des folioles rhomboïdales de 6 à 10 cm de long. Chaque foliole peut présenter des lobes, bien que cela varie d'un spécimen à l'autre.
 Les fleurs de Pueraria phaseoloides sont regroupées en petites grappes au bout de longs pédoncules. Le calice, couvert de poils fins, mesure environ 6 mm de long. La corolle présente des teintes blanches et violettes, avec un étendard rabattu vers l'arrière d'environ 12 mm de longueur. La plante produit des gousses de 5 à 8 cm de long et d'environ 4 mm de diamètre.
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Pueraria_phaseolo%C3%AFdes</t>
+          <t>Pueraria_phaseoloïdes</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Répartition Géographique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Bien que cette plante soit originaire de l'Asie du Sud et des régions tropicales du Pacifique, elle a été introduite dans de nombreuses autres régions tropicales et subtropicales en raison de ses propriétés bénéfiques en agriculture. Elle est souvent utilisée comme plante de couverture du sol pour prévenir l'érosion, améliorer la fertilité des sols et étouffer les mauvaises herbes.
 </t>
@@ -556,7 +572,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Pueraria_phaseolo%C3%AFdes</t>
+          <t>Pueraria_phaseoloïdes</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -574,7 +590,9 @@
           <t>Utilisations Agricoles</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Pueraria phaseoloides est souvent utilisée dans les systèmes agroforestiers et en tant que plante de couverture. Elle contribue à la fixation de l'azote, ce qui en fait un excellent choix pour améliorer la fertilité du sol dans les zones de culture. Sa capacité à étouffer les mauvaises herbes en fait également une plante utile pour la gestion des terres agricoles.
 </t>
@@ -587,7 +605,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Pueraria_phaseolo%C3%AFdes</t>
+          <t>Pueraria_phaseoloïdes</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -605,7 +623,9 @@
           <t>Préoccupations Écologiques</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Bien que Pueraria phaseoloides présente de nombreux avantages, son comportement de plante grimpante peut poser des problèmes écologiques. Dans certaines régions, elle peut devenir envahissante, recouvrant des plantes indigènes et modifiant les écosystèmes locaux. Des mesures de contrôle appropriées sont donc nécessaires pour éviter les impacts négatifs sur l'environnement.
 </t>
@@ -618,7 +638,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Pueraria_phaseolo%C3%AFdes</t>
+          <t>Pueraria_phaseoloïdes</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -636,7 +656,9 @@
           <t>Sources</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">‘CSIRO Data Access Portal’ &lt;https://data.csiro.au/dap/landingpage?execution=e1s2&gt; [accessed 29 April 2024]
 ‘Neustanthus’, Wikipedia, 2023 &lt;https://en.wikipedia.org/w/index.php?title=Neustanthus&amp;oldid=1174913541&gt; [accessed 29 April 2024]
